--- a/image/Simulador_FGI.xlsx
+++ b/image/Simulador_FGI.xlsx
@@ -1346,14 +1346,14 @@
       </c>
       <c r="C14" s="50">
         <f>IF(B12="Possível Garantia Total pelo FGI",(VLOOKUP(C7,'Fator K e Fórmulas'!A2:B121,2)*C6*C13*C7)/(1-(VLOOKUP(C7,'Fator K e Fórmulas'!A13:B121,2)*C13*C7)),"-")</f>
-        <v>10084.033613445379</v>
+        <v>9030.1003344481614</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>3</v>
       </c>
       <c r="H14" s="50">
         <f>IF(G12="Possível Garantia Complementar pelo FGI",(VLOOKUP(C7,'Fator K e Fórmulas'!A2:B121,2)*C6*H13*C7)/(1-(VLOOKUP(C7,'Fator K e Fórmulas'!A13:B121,2)*H13*C7)),"-")</f>
-        <v>10084.033613445379</v>
+        <v>9030.1003344481614</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1454,7 +1454,7 @@
   <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1.83E-2</v>
+        <v>1.7100000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1488,7 +1488,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1.83E-2</v>
+        <v>1.7100000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1496,7 +1496,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1.83E-2</v>
+        <v>1.7100000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1504,7 +1504,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>7.4999999999999997E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1512,7 +1512,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>7.4999999999999997E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1520,7 +1520,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>7.4999999999999997E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1528,7 +1528,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1536,7 +1536,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1544,7 +1544,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1552,14 +1552,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>3.5999999999999999E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="26">
         <f>VLOOKUP('Estimativa FGI'!C7,'Fator K e Fórmulas'!A2:B121,2,FALSE)</f>
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="F11" s="27"/>
     </row>
@@ -1568,7 +1568,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>3.5999999999999999E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>16</v>
@@ -1584,7 +1584,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>3.5999999999999999E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>17</v>
@@ -1601,7 +1601,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>3.0999999999999999E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="D14" s="43" t="s">
         <v>18</v>
@@ -1617,7 +1617,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>3.0999999999999999E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1625,7 +1625,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>3.0999999999999999E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="19"/>
@@ -1642,18 +1642,18 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>2.5999999999999999E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="17">
         <f>E11*(E12*E13)*E14</f>
-        <v>9600</v>
+        <v>8640</v>
       </c>
       <c r="H17" s="35">
         <f>G17/G18</f>
-        <v>10084.033613445379</v>
+        <v>9030.1003344481614</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1661,14 +1661,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>2.5999999999999999E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="34">
         <f>1-(E11*E13*E14)</f>
-        <v>0.95199999999999996</v>
+        <v>0.95679999999999998</v>
       </c>
       <c r="H18" s="22"/>
     </row>
@@ -1677,7 +1677,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>2.5999999999999999E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="24"/>
@@ -1690,7 +1690,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>2.2000000000000001E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="21"/>
@@ -1707,18 +1707,18 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>2.2000000000000001E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="17">
         <f>E11*(E12*F13)*E14</f>
-        <v>6000</v>
+        <v>5400</v>
       </c>
       <c r="H21" s="35">
         <f>G21/G22</f>
-        <v>6185.5670103092789</v>
+        <v>5549.8458376156223</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1726,14 +1726,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>2.2000000000000001E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
       <c r="G22" s="36">
         <f>1-(E11*F13*E14)</f>
-        <v>0.97</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="H22" s="25"/>
     </row>
@@ -1742,7 +1742,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1750,7 +1750,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="D24" s="47" t="s">
         <v>28</v>
@@ -1763,7 +1763,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="D25" s="47" t="s">
         <v>23</v>
@@ -1774,7 +1774,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>1.8E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="D26" s="47" t="s">
         <v>24</v>
@@ -1785,7 +1785,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>1.8E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="D27" s="47" t="s">
         <v>25</v>
@@ -1796,7 +1796,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>1.8E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1804,7 +1804,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>1.6999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1812,7 +1812,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>1.6999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1820,7 +1820,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>1.6999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1828,7 +1828,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>1.5E-3</v>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1836,7 +1836,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>1.5E-3</v>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1844,7 +1844,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>1.5E-3</v>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1852,7 +1852,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>1.4E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1860,7 +1860,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>1.4E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1868,7 +1868,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>1.4E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1900,7 +1900,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>1.2999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1908,7 +1908,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>1.2999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1916,7 +1916,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>1.2999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1924,7 +1924,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1932,7 +1932,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1940,7 +1940,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1948,7 +1948,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1956,7 +1956,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1964,7 +1964,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1972,7 +1972,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1980,7 +1980,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1988,7 +1988,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1996,7 +1996,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2004,7 +2004,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2012,7 +2012,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2020,7 +2020,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2028,7 +2028,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2036,7 +2036,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2044,7 +2044,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2052,7 +2052,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2060,7 +2060,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2092,7 +2092,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>8.9999999999999998E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2100,7 +2100,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>8.9999999999999998E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2108,7 +2108,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>8.9999999999999998E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2116,7 +2116,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>8.9999999999999998E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2124,7 +2124,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>8.9999999999999998E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2132,7 +2132,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>8.9999999999999998E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2188,7 +2188,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>8.0000000000000004E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2196,7 +2196,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>8.0000000000000004E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2204,7 +2204,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>8.0000000000000004E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2212,7 +2212,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>8.0000000000000004E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2220,7 +2220,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>8.0000000000000004E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2228,7 +2228,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>8.0000000000000004E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2284,7 +2284,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2292,7 +2292,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2300,7 +2300,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2308,7 +2308,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2316,7 +2316,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2324,7 +2324,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2428,7 +2428,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1">
-        <v>5.9999999999999995E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2436,7 +2436,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1">
-        <v>5.9999999999999995E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2444,7 +2444,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1">
-        <v>5.9999999999999995E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2452,7 +2452,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1">
-        <v>5.9999999999999995E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2460,7 +2460,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1">
-        <v>5.9999999999999995E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2468,7 +2468,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1">
-        <v>5.9999999999999995E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
